--- a/src/Database/Dữ_liệu.xlsx
+++ b/src/Database/Dữ_liệu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dungn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147BE15D-2D09-4128-B355-829080CC9DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA18785F-E0C2-4692-840E-6394369900CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="597" activeTab="5" xr2:uid="{2D618FC3-BD59-4724-8FD9-C5132DA0423C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="597" xr2:uid="{2D618FC3-BD59-4724-8FD9-C5132DA0423C}"/>
   </bookViews>
   <sheets>
     <sheet name="NguoiDung" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="GioHang" sheetId="11" r:id="rId8"/>
     <sheet name="ChiTietGioHang" sheetId="12" r:id="rId9"/>
     <sheet name="KhachHang" sheetId="2" r:id="rId10"/>
-    <sheet name="NhanVien" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,10 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="142">
-  <si>
-    <t>MaND</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
   <si>
     <t>Email</t>
   </si>
@@ -76,36 +72,6 @@
     <t>VaiTro</t>
   </si>
   <si>
-    <t>ND001</t>
-  </si>
-  <si>
-    <t>ND002</t>
-  </si>
-  <si>
-    <t>ND003</t>
-  </si>
-  <si>
-    <t>ND004</t>
-  </si>
-  <si>
-    <t>ND005</t>
-  </si>
-  <si>
-    <t>ND006</t>
-  </si>
-  <si>
-    <t>ND007</t>
-  </si>
-  <si>
-    <t>ND008</t>
-  </si>
-  <si>
-    <t>ND009</t>
-  </si>
-  <si>
-    <t>ND010</t>
-  </si>
-  <si>
     <t>admin1@gmail.com</t>
   </si>
   <si>
@@ -148,18 +114,6 @@
     <t>Tien Giang</t>
   </si>
   <si>
-    <t>MaNV</t>
-  </si>
-  <si>
-    <t>ViTriNhanVien</t>
-  </si>
-  <si>
-    <t>Quan ly</t>
-  </si>
-  <si>
-    <t>Bao ve</t>
-  </si>
-  <si>
     <t>MaLoaiVe</t>
   </si>
   <si>
@@ -169,96 +123,18 @@
     <t>GiaVe</t>
   </si>
   <si>
-    <t>LVE01</t>
-  </si>
-  <si>
-    <t>LVE02</t>
-  </si>
-  <si>
-    <t>LVE03</t>
-  </si>
-  <si>
     <t>Ve tuan</t>
   </si>
   <si>
     <t>Ve thang</t>
   </si>
   <si>
-    <t>MaVe</t>
-  </si>
-  <si>
     <t>NgayHetHan</t>
   </si>
   <si>
     <t>TrangThai</t>
   </si>
   <si>
-    <t>VE001</t>
-  </si>
-  <si>
-    <t>VE002</t>
-  </si>
-  <si>
-    <t>VE003</t>
-  </si>
-  <si>
-    <t>VE004</t>
-  </si>
-  <si>
-    <t>VE005</t>
-  </si>
-  <si>
-    <t>VE006</t>
-  </si>
-  <si>
-    <t>VE007</t>
-  </si>
-  <si>
-    <t>VE008</t>
-  </si>
-  <si>
-    <t>VE009</t>
-  </si>
-  <si>
-    <t>VE010</t>
-  </si>
-  <si>
-    <t>VE011</t>
-  </si>
-  <si>
-    <t>VE012</t>
-  </si>
-  <si>
-    <t>VE013</t>
-  </si>
-  <si>
-    <t>VE014</t>
-  </si>
-  <si>
-    <t>VE015</t>
-  </si>
-  <si>
-    <t>VE016</t>
-  </si>
-  <si>
-    <t>VE017</t>
-  </si>
-  <si>
-    <t>VE018</t>
-  </si>
-  <si>
-    <t>VE019</t>
-  </si>
-  <si>
-    <t>VE020</t>
-  </si>
-  <si>
-    <t>VE021</t>
-  </si>
-  <si>
-    <t>VE022</t>
-  </si>
-  <si>
     <t>Da het han</t>
   </si>
   <si>
@@ -271,36 +147,6 @@
     <t>NgayHD</t>
   </si>
   <si>
-    <t>HD001</t>
-  </si>
-  <si>
-    <t>HD002</t>
-  </si>
-  <si>
-    <t>HD003</t>
-  </si>
-  <si>
-    <t>HD004</t>
-  </si>
-  <si>
-    <t>HD005</t>
-  </si>
-  <si>
-    <t>HD006</t>
-  </si>
-  <si>
-    <t>HD007</t>
-  </si>
-  <si>
-    <t>HD008</t>
-  </si>
-  <si>
-    <t>HD009</t>
-  </si>
-  <si>
-    <t>HD010</t>
-  </si>
-  <si>
     <t>SoLuongVe</t>
   </si>
   <si>
@@ -313,9 +159,6 @@
     <t>Khach hang</t>
   </si>
   <si>
-    <t>Nhan vien</t>
-  </si>
-  <si>
     <t>MaGioHang</t>
   </si>
   <si>
@@ -346,9 +189,6 @@
     <t>Le Thanh Tai</t>
   </si>
   <si>
-    <t xml:space="preserve">Tran Tri Đuc </t>
-  </si>
-  <si>
     <t>Le Van A</t>
   </si>
   <si>
@@ -370,36 +210,6 @@
     <t>MaKHSoHuu</t>
   </si>
   <si>
-    <t>TC001</t>
-  </si>
-  <si>
-    <t>TC002</t>
-  </si>
-  <si>
-    <t>TC003</t>
-  </si>
-  <si>
-    <t>TC004</t>
-  </si>
-  <si>
-    <t>TC005</t>
-  </si>
-  <si>
-    <t>TC006</t>
-  </si>
-  <si>
-    <t>TC007</t>
-  </si>
-  <si>
-    <t>TC008</t>
-  </si>
-  <si>
-    <t>TC009</t>
-  </si>
-  <si>
-    <t>TC010</t>
-  </si>
-  <si>
     <t>Cho</t>
   </si>
   <si>
@@ -457,19 +267,16 @@
     <t>22520418@gm.uit.edu.vn</t>
   </si>
   <si>
-    <t>GH001</t>
-  </si>
-  <si>
-    <t>GH002</t>
-  </si>
-  <si>
-    <t>GH003</t>
-  </si>
-  <si>
     <t>SoLuongMua</t>
   </si>
   <si>
     <t>TongGiaTien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tran Tri Duc </t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -916,28 +723,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE0D3F5-D7B0-4544-BDA2-6C5FF990EC54}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -965,356 +771,323 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4" t="str">
+        <f ca="1">CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))</f>
+        <v>rxdfuyhg</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="11">
+        <v>31675</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4">
+        <v>363598475</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="4" t="str">
+        <f ca="1">CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))</f>
+        <v>nxhuauhr</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="11">
+        <v>31676</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4">
+        <v>865962547</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f ca="1">CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))</f>
+        <v>mkqoiggk</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="11">
+        <v>33236</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4">
+        <v>775696358</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f t="shared" ref="B5:B11" ca="1" si="0">CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))</f>
+        <v>lvrfedpg</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="11">
+        <v>33237</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="str">
-        <f ca="1">CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))</f>
-        <v>iuiuasxm</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="11">
-        <v>31675</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="4">
-        <v>363598475</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="H5" s="4">
+        <v>334586738</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>nrpfxngb</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11">
+        <v>37549</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4" t="str">
-        <f ca="1">CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))</f>
-        <v>ublbunem</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="11">
-        <v>31676</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="4">
-        <v>865962547</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="H6" s="4">
+        <v>368909827</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>hhxmyjab</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="11">
+        <v>37525</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4">
+        <v>776695664</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cpqcedop</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="str">
-        <f ca="1">CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))</f>
-        <v>ktsqfrvo</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="11">
-        <v>33236</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="4">
-        <v>775696358</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="E8" s="11">
+        <v>37342</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4">
+        <v>869055450</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>eidcmwhc</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="4" t="str">
-        <f t="shared" ref="C5:C11" ca="1" si="0">CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))</f>
-        <v>vgwjsfeg</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="11">
-        <v>33237</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="4">
-        <v>334586738</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="4" t="str">
+      <c r="E9" s="11">
+        <v>37608</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4">
+        <v>335586347</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>hpugeepu</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="11">
-        <v>37549</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="4">
-        <v>368909827</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="4" t="str">
+        <v>jtksqcih</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="11">
+        <v>37604</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4">
+        <v>868247806</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>qiqrfmkn</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="11">
-        <v>37525</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="4">
-        <v>776695664</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>rhcxxmun</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="11">
-        <v>37342</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="4">
-        <v>869055450</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+        <v>kgwwtcsw</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="11">
+        <v>37485</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>umsiystj</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="11">
-        <v>37608</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="4">
-        <v>335586347</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>evyevpqg</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="11">
-        <v>37604</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="4">
-        <v>868247806</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ewytbofc</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="11">
-        <v>37485</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H11" s="4">
         <v>332743065</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F12" s="2"/>
+      <c r="I11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{1E26A7DD-9417-46C0-847D-0D3D73890773}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{19167F78-B1DA-4E6F-A990-153FA040B124}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{E01B74C2-72BF-4409-A7AB-9DD479276E4B}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{C3CDA6E9-C9D1-456D-ACD2-02420C175D56}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{D13B7BD2-BF90-4A8E-ADB4-1207B6ED310C}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{A4248375-359C-4F96-B4A7-1CAF7985D922}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{6A5CA0AF-039B-4F21-8562-3E8C4C1BE37D}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{B08A6C00-D86A-4735-9FC8-F11D3866C3CA}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{882873EE-913B-4A1E-9011-9B9FAA2C6766}"/>
-    <hyperlink ref="B5" r:id="rId10" xr:uid="{A8D280A0-FCD3-4056-BEB0-B719C27676A6}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1E26A7DD-9417-46C0-847D-0D3D73890773}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{19167F78-B1DA-4E6F-A990-153FA040B124}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{E01B74C2-72BF-4409-A7AB-9DD479276E4B}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{C3CDA6E9-C9D1-456D-ACD2-02420C175D56}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{D13B7BD2-BF90-4A8E-ADB4-1207B6ED310C}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{A4248375-359C-4F96-B4A7-1CAF7985D922}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{6A5CA0AF-039B-4F21-8562-3E8C4C1BE37D}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{B08A6C00-D86A-4735-9FC8-F11D3866C3CA}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{882873EE-913B-4A1E-9011-9B9FAA2C6766}"/>
+    <hyperlink ref="A5" r:id="rId10" xr:uid="{A8D280A0-FCD3-4056-BEB0-B719C27676A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
@@ -1327,7 +1100,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,118 +1111,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
+      <c r="A2" s="4">
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
+      <c r="A3" s="18">
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
+      <c r="A4" s="18">
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
+      <c r="A5" s="18">
+        <v>8</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>18</v>
+      <c r="A6" s="18">
+        <v>9</v>
       </c>
       <c r="B6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
+      <c r="A7" s="18">
+        <v>10</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC173B9-941C-4F66-BF3E-21EBB04B58B7}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1460,61 +1173,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378BB735-6FC6-4A02-82E3-5796182B1C02}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="4">
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="4">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
         <v>95000</v>
       </c>
     </row>
@@ -1526,174 +1226,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD24CCB-3F16-4B37-A36F-5D330861CDE7}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="12">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12">
         <v>44928.85434027778</v>
       </c>
-      <c r="D2" s="5">
+      <c r="C2" s="5">
         <f>3000*2</f>
         <v>6000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="12">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>5</v>
+      </c>
+      <c r="B3" s="12">
         <v>45066.333333333336</v>
       </c>
-      <c r="D3" s="5">
+      <c r="C3" s="5">
         <f>25000*1+95000*1+3000*1</f>
         <v>123000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="16">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>6</v>
+      </c>
+      <c r="B4" s="16">
         <v>45056.39947916667</v>
       </c>
-      <c r="D4" s="10">
+      <c r="C4" s="10">
         <v>126000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="12">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12">
         <v>45063.968888888892</v>
       </c>
-      <c r="D5" s="5">
+      <c r="C5" s="5">
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="12">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12">
         <v>45066.622511574074</v>
       </c>
-      <c r="D6" s="5">
+      <c r="C6" s="5">
         <v>95000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="12">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12">
         <v>45084.844097222223</v>
       </c>
-      <c r="D7" s="5">
+      <c r="C7" s="5">
         <v>123000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>8</v>
+      </c>
+      <c r="B8" s="15">
         <v>45078.000717592593</v>
       </c>
-      <c r="D8" s="10">
+      <c r="C8" s="10">
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="16">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16">
         <v>45081.843946759262</v>
       </c>
-      <c r="D9" s="10">
+      <c r="C9" s="10">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="12">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
         <v>45061.702951388892</v>
       </c>
-      <c r="D10" s="5">
+      <c r="C10" s="5">
         <v>98000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="12">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
         <v>45080.594270833331</v>
       </c>
-      <c r="D11" s="5">
+      <c r="C11" s="5">
         <v>98000</v>
       </c>
     </row>
@@ -1709,7 +1375,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1721,208 +1387,208 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>41</v>
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>1</v>
       </c>
       <c r="C2" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>43</v>
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19">
+        <v>3</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>42</v>
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>41</v>
+      <c r="A5" s="19">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19">
+        <v>1</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>41</v>
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>43</v>
+      <c r="A7" s="21">
+        <v>3</v>
+      </c>
+      <c r="B7" s="21">
+        <v>3</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>42</v>
+      <c r="A8" s="21">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21">
+        <v>2</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>42</v>
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="19">
+        <v>2</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>43</v>
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19">
+        <v>3</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>41</v>
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="19">
+        <v>1</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>43</v>
+      <c r="A12" s="19">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19">
+        <v>3</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>42</v>
+      <c r="A13" s="19">
+        <v>6</v>
+      </c>
+      <c r="B13" s="19">
+        <v>2</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>41</v>
+      <c r="A14" s="10">
+        <v>7</v>
+      </c>
+      <c r="B14" s="21">
+        <v>1</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>42</v>
+      <c r="A15" s="10">
+        <v>8</v>
+      </c>
+      <c r="B15" s="21">
+        <v>2</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>41</v>
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>43</v>
+      <c r="A17" s="19">
+        <v>9</v>
+      </c>
+      <c r="B17" s="19">
+        <v>3</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>41</v>
+      <c r="A18" s="5">
+        <v>10</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>43</v>
+      <c r="A19" s="19">
+        <v>10</v>
+      </c>
+      <c r="B19" s="19">
+        <v>3</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -2261,207 +1927,173 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A062CCD6-19EB-42D2-A50B-C6AA91840CAB}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>118</v>
+        <v>55</v>
+      </c>
+      <c r="C2" s="4">
+        <v>41</v>
       </c>
       <c r="D2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4">
         <v>41</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D3" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4">
         <v>41</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="4">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="4">
-        <v>43</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4">
         <v>39</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="4">
-        <v>43</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="4">
-        <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="4">
-        <v>38</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="4">
-        <v>44</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D11" s="4">
-        <v>39</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2475,9 +2107,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FEF4ACC-084B-4514-861A-130FE29D3B9B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2490,16 +2122,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2509,11 +2141,11 @@
       <c r="B2" s="12">
         <v>45078.479166666664</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>108</v>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2523,11 +2155,11 @@
       <c r="B3" s="12">
         <v>45078.447916666664</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>109</v>
+      <c r="C3" s="19">
+        <v>6</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2537,11 +2169,11 @@
       <c r="B4" s="12">
         <v>45078.395833333336</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>110</v>
+      <c r="C4" s="19">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2551,11 +2183,11 @@
       <c r="B5" s="12">
         <v>45078.465277777781</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>111</v>
+      <c r="C5" s="19">
+        <v>8</v>
+      </c>
+      <c r="D5" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2565,11 +2197,11 @@
       <c r="B6" s="12">
         <v>45078.649305555555</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>112</v>
+      <c r="C6" s="19">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2579,11 +2211,11 @@
       <c r="B7" s="12">
         <v>45078.709722222222</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>113</v>
+      <c r="C7" s="19">
+        <v>10</v>
+      </c>
+      <c r="D7" s="19">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2593,11 +2225,11 @@
       <c r="B8" s="12">
         <v>45078.711805555555</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>114</v>
+      <c r="C8" s="19">
+        <v>5</v>
+      </c>
+      <c r="D8" s="19">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2607,11 +2239,11 @@
       <c r="B9" s="12">
         <v>45078.707638888889</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>115</v>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="19">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2621,11 +2253,11 @@
       <c r="B10" s="12">
         <v>45078.697916666664</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>116</v>
+      <c r="C10" s="5">
+        <v>7</v>
+      </c>
+      <c r="D10" s="19">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2635,11 +2267,11 @@
       <c r="B11" s="12">
         <v>45078.718055555553</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>117</v>
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="19">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2650,503 +2282,434 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54895FD2-E7B8-42B1-ADF0-EBF7AFCEA96D}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
+      <c r="C1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12">
+        <v>45061.809710648151</v>
+      </c>
       <c r="D2" s="12">
-        <v>45061.809710648151</v>
-      </c>
-      <c r="E2" s="12">
-        <f>D2 + 1</f>
+        <f>C2 + 1</f>
         <v>45062.809710648151</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>14</v>
+      <c r="E2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19">
+        <v>5</v>
+      </c>
+      <c r="C3" s="22">
+        <v>45062.809710648151</v>
       </c>
       <c r="D3" s="22">
-        <v>45062.809710648151</v>
-      </c>
-      <c r="E3" s="22">
-        <f>D3 + 1</f>
+        <f>C3 + 1</f>
         <v>45063.809710648151</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>14</v>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12">
+        <v>45092.851377314815</v>
       </c>
       <c r="D4" s="12">
-        <v>45092.851377314815</v>
-      </c>
-      <c r="E4" s="12">
-        <f>D4+7</f>
+        <f>C4+7</f>
         <v>45099.851377314815</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>14</v>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19">
+        <v>5</v>
+      </c>
+      <c r="C5" s="22">
+        <v>45093.851377314815</v>
       </c>
       <c r="D5" s="22">
-        <v>45093.851377314815</v>
-      </c>
-      <c r="E5" s="22">
-        <f>D5+30</f>
+        <f>C5+30</f>
         <v>45123.851377314815</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
+      <c r="E5" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="19">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22">
+        <v>45094.851377314815</v>
       </c>
       <c r="D6" s="22">
-        <v>45094.851377314815</v>
-      </c>
-      <c r="E6" s="22">
-        <f>D6+1</f>
+        <f>C6+1</f>
         <v>45095.851377314815</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>15</v>
+      <c r="E6" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18">
+        <v>6</v>
+      </c>
+      <c r="C7" s="23">
+        <v>45076.552661979164</v>
       </c>
       <c r="D7" s="23">
-        <v>45076.552661979164</v>
-      </c>
-      <c r="E7" s="23">
-        <f>D7+1</f>
+        <f>C7+1</f>
         <v>45077.552661979164</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>15</v>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23">
+        <v>45077.552661979164</v>
       </c>
       <c r="D8" s="23">
-        <v>45077.552661979164</v>
-      </c>
-      <c r="E8" s="23">
-        <f>D8+1</f>
+        <f>C8+1</f>
         <v>45078.552661979164</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>15</v>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>3</v>
+      </c>
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13">
+        <v>45078.552662037036</v>
       </c>
       <c r="D9" s="13">
-        <v>45078.552662037036</v>
-      </c>
-      <c r="E9" s="13">
-        <f>D9+30</f>
+        <f>C9+30</f>
         <v>45108.552662037036</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>15</v>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13">
+        <v>45062.437638888892</v>
       </c>
       <c r="D10" s="13">
-        <v>45062.437638888892</v>
-      </c>
-      <c r="E10" s="13">
-        <f>D10+7</f>
+        <f>C10+7</f>
         <v>45069.437638888892</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="22">
+        <v>45066.703194444446</v>
       </c>
       <c r="D11" s="22">
-        <v>45066.703194444446</v>
-      </c>
-      <c r="E11" s="22">
-        <f>D11+7</f>
+        <f>C11+7</f>
         <v>45073.703194444446</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>16</v>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="19">
+        <v>7</v>
+      </c>
+      <c r="C12" s="12">
+        <v>45067.703194444446</v>
       </c>
       <c r="D12" s="12">
-        <v>45067.703194444446</v>
-      </c>
-      <c r="E12" s="12">
-        <f>D12+7</f>
+        <f>C12+7</f>
         <v>45074.703194444446</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>16</v>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="19">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12">
+        <v>45087.709837962961</v>
       </c>
       <c r="D13" s="12">
-        <v>45087.709837962961</v>
-      </c>
-      <c r="E13" s="12">
-        <f>D13+30</f>
+        <f>C13+30</f>
         <v>45117.709837962961</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>16</v>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="19">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22">
+        <v>45088.709837905095</v>
       </c>
       <c r="D14" s="22">
-        <v>45088.709837905095</v>
-      </c>
-      <c r="E14" s="22">
-        <f t="shared" ref="E14" si="0">D14+30</f>
+        <f t="shared" ref="D14" si="0">C14+30</f>
         <v>45118.709837905095</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>16</v>
+      <c r="E14" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19">
+        <v>7</v>
+      </c>
+      <c r="C15" s="22">
+        <v>45089.709837905095</v>
       </c>
       <c r="D15" s="22">
-        <v>45089.709837905095</v>
-      </c>
-      <c r="E15" s="22">
-        <f>D15+7</f>
+        <f>C15+7</f>
         <v>45096.709837905095</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
+      <c r="E15" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="23">
+        <v>45049.670972222222</v>
       </c>
       <c r="D16" s="23">
-        <v>45049.670972222222</v>
-      </c>
-      <c r="E16" s="23">
-        <f>D16+1</f>
+        <f>C16+1</f>
         <v>45050.670972222222</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>17</v>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="18">
+        <v>8</v>
+      </c>
+      <c r="C17" s="23">
+        <v>45050.670972222222</v>
       </c>
       <c r="D17" s="23">
-        <v>45050.670972222222</v>
-      </c>
-      <c r="E17" s="23">
-        <f>D17+1</f>
+        <f>C17+1</f>
         <v>45051.670972222222</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>17</v>
+      <c r="E17" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="13">
+        <v>45082.670972222222</v>
       </c>
       <c r="D18" s="13">
-        <v>45082.670972222222</v>
-      </c>
-      <c r="E18" s="13">
-        <f>D18+7</f>
+        <f>C18+7</f>
         <v>45089.670972222222</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>17</v>
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="18">
+        <v>8</v>
+      </c>
+      <c r="C19" s="23">
+        <v>45083.670972164349</v>
       </c>
       <c r="D19" s="23">
-        <v>45083.670972164349</v>
-      </c>
-      <c r="E19" s="23">
-        <f>D19+30</f>
+        <f>C19+30</f>
         <v>45113.670972164349</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
+      <c r="E19" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5">
+        <v>9</v>
+      </c>
+      <c r="C20" s="22">
+        <v>45071.47934027778</v>
       </c>
       <c r="D20" s="22">
-        <v>45071.47934027778</v>
-      </c>
-      <c r="E20" s="22">
-        <f>D20+1</f>
+        <f>C20+1</f>
         <v>45072.47934027778</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>18</v>
+      <c r="E20" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>3</v>
+      </c>
+      <c r="B21" s="19">
+        <v>9</v>
+      </c>
+      <c r="C21" s="12">
+        <v>45072.47934027778</v>
       </c>
       <c r="D21" s="12">
-        <v>45072.47934027778</v>
-      </c>
-      <c r="E21" s="12">
-        <f>D21+30</f>
+        <f>C21+30</f>
         <v>45102.47934027778</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>18</v>
+      <c r="E21" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="19">
+        <v>9</v>
+      </c>
+      <c r="C22" s="22">
+        <v>45104.47934027778</v>
       </c>
       <c r="D22" s="22">
-        <v>45104.47934027778</v>
-      </c>
-      <c r="E22" s="22">
-        <f>D22+1</f>
+        <f>C22+1</f>
         <v>45105.47934027778</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>18</v>
+      <c r="E22" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>3</v>
+      </c>
+      <c r="B23" s="19">
+        <v>9</v>
+      </c>
+      <c r="C23" s="22">
+        <v>45105.47934027778</v>
       </c>
       <c r="D23" s="22">
-        <v>45105.47934027778</v>
-      </c>
-      <c r="E23" s="22">
-        <f>D23+30</f>
+        <f>C23+30</f>
         <v>45135.47934027778</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>72</v>
+      <c r="E23" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3154,54 +2717,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E22 E20" formula="1"/>
+    <ignoredError sqref="D22 D20" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06D2151-9C66-456C-B896-8CC2AE6B18C8}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>16</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -3215,7 +2763,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3227,65 +2775,65 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>41</v>
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
       </c>
       <c r="C2" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>42</v>
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>2</v>
       </c>
       <c r="C3" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>43</v>
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3</v>
       </c>
       <c r="C4" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>43</v>
+      <c r="A5" s="18">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3</v>
       </c>
       <c r="C5" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>41</v>
+      <c r="A6" s="18">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
       </c>
       <c r="C6" s="18">
         <v>2</v>
